--- a/files/Cost.xlsx
+++ b/files/Cost.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23524"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anu365-my.sharepoint.com/personal/u7156831_anu_edu_au/Documents/Documents/ANU/Major Project/ANURobot/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC1048FD295B524C5ADE58EC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ADBDF446-ACF1-488D-AC44-07EFFF9B434D}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_F25DC773A252ABDACC1048FD295B524C5ADE58EC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3C306696-53D0-46A2-8985-8ADF333E303F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Supplied By ANU Free</t>
   </si>
@@ -96,22 +96,25 @@
     <t>Plywood</t>
   </si>
   <si>
+    <t>&lt;1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Small Plastic Tub (for holding jelly beans)</t>
+  </si>
+  <si>
     <t>Ice Cream Tub</t>
   </si>
   <si>
+    <t>Acrylic (Free--decorative use only)</t>
+  </si>
+  <si>
     <t>sheet (210x297 mm)</t>
   </si>
   <si>
     <t>3D Printing &amp; Laser Cutting Time above free limit</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>&lt;1</t>
-  </si>
-  <si>
-    <t>Acrylic (Free--decorative use only)</t>
   </si>
 </sst>
 </file>
@@ -121,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +203,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6FA3A89-3485-43E1-BEF7-0F4D033D2E22}" name="Table2" displayName="Table2" ref="A12:E18" totalsRowShown="0">
-  <autoFilter ref="A12:E18" xr:uid="{6F2596E9-3670-406D-BD46-5769B6EBBAAA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6FA3A89-3485-43E1-BEF7-0F4D033D2E22}" name="Table2" displayName="Table2" ref="A12:E19" totalsRowShown="0">
+  <autoFilter ref="A12:E19" xr:uid="{6F2596E9-3670-406D-BD46-5769B6EBBAAA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D42B793F-4328-4505-A30E-95252B24B5E6}" name="Bought/Recycled"/>
     <tableColumn id="2" xr3:uid="{8A107B94-4B4A-4B89-9159-48B0BC9CB05D}" name="Price" dataDxfId="1"/>
@@ -476,11 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -488,7 +493,7 @@
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -523,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -541,7 +546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -559,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -577,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -595,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -613,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -631,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -649,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -667,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -684,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -698,11 +703,11 @@
         <v>6</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:E18" si="1">B13*C13</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E13:E19" si="1">B13*C13</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -720,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -728,18 +733,18 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -755,55 +760,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>11.55</v>
+      </c>
+      <c r="C18">
+        <v>0.25</v>
+      </c>
+      <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1">
-        <v>11.55</v>
-      </c>
-      <c r="C17">
-        <v>0.25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
         <v>1.5</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="B20" s="1"/>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="E21" s="1">
-        <f>SUM(E2:E18)</f>
+    <row r="22" spans="1:5">
+      <c r="B22" s="1"/>
+      <c r="E22" s="1">
+        <f>SUM(E2:E19)</f>
         <v>7</v>
       </c>
     </row>
